--- a/clean/unit/clean_unit/08038B.xlsx
+++ b/clean/unit/clean_unit/08038B.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>g/l;;;ug/l</t>
+          <t>ug/l</t>
         </is>
       </c>
       <c r="D18">
@@ -747,7 +747,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>g/l;mg/l</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="D21">
@@ -767,7 +767,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>g/l;mg/l</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="D22">

--- a/clean/unit/clean_unit/08038B.xlsx
+++ b/clean/unit/clean_unit/08038B.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Assay_Unit</t>
+          <t>Unit_Clean</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
